--- a/project的写法.xlsx
+++ b/project的写法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="c project" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <r>
       <t>#include “</t>
@@ -985,12 +985,22 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>工程中的全局变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在1.c中定义全局变量int i;</t>
+  </si>
+  <si>
+    <t>在2.c和3.c中都用extern int i;声明一下就可以使用了</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1083,6 +1093,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1141,7 +1157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1185,6 +1201,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11062,7 +11080,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:S86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="O59" sqref="O59"/>
     </sheetView>
   </sheetViews>
@@ -12157,15 +12175,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="20.25">
+      <c r="A3" s="26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="20.25">
+      <c r="A4" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/project的写法.xlsx
+++ b/project的写法.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="c project" sheetId="1" r:id="rId1"/>
     <sheet name="静态库与动态库" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="工程中的全局变量" sheetId="3" r:id="rId3"/>
+    <sheet name="typedef" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
   <si>
     <r>
       <t>#include “</t>
@@ -995,12 +996,156 @@
   <si>
     <t>在2.c和3.c中都用extern int i;声明一下就可以使用了</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>查看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.so</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件包含哪些函数：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>64</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位系统使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>位的动态库时：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Windows</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中查看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.dll</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包含哪些函数：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1099,6 +1244,19 @@
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1157,7 +1315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1198,11 +1356,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8071,15 +8231,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>662611</xdr:colOff>
+      <xdr:colOff>684143</xdr:colOff>
       <xdr:row>64</xdr:row>
-      <xdr:rowOff>157373</xdr:rowOff>
+      <xdr:rowOff>157374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>684144</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8284</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>155709</xdr:rowOff>
+      <xdr:rowOff>155710</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -8090,9 +8250,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="1982862" y="9463709"/>
-          <a:ext cx="362771" cy="21533"/>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="1999426" y="12814852"/>
+          <a:ext cx="362771" cy="11597"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -8130,7 +8290,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>16565</xdr:colOff>
+      <xdr:colOff>82826</xdr:colOff>
       <xdr:row>64</xdr:row>
       <xdr:rowOff>157373</xdr:rowOff>
     </xdr:to>
@@ -8141,8 +8301,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1424611" y="9077740"/>
-          <a:ext cx="1457737" cy="215350"/>
+          <a:off x="1424611" y="12423914"/>
+          <a:ext cx="1523998" cy="215350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10785,6 +10945,1135 @@
             </a:rPr>
             <a:t>程序执行出现加载动态库找不到相应文件时的处理方式</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>215348</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>107677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>74543</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>99393</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1706218" y="14411742"/>
+          <a:ext cx="1234108" cy="372716"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>nm -D xxx.so</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>objdump -tT xxx.so</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314739</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>273324</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直接箭头连接符 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="60" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2493065" y="14544261"/>
+          <a:ext cx="646042" cy="16566"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>273324</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>41414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>74544</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>91109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="矩形 59"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3139107" y="14345479"/>
+          <a:ext cx="5226328" cy="430695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>nm</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>names</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的意思，用于显示函数和全局变量，</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-D</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>显示动态</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>144118</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>135838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>173934</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2322444" y="15003121"/>
+          <a:ext cx="717273" cy="220314"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>gcc</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+            <a:t>  -m32</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57977</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>80343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>251789</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>86137</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="直接箭头连接符 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="64" idx="3"/>
+          <a:endCxn id="63" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2923760" y="15129843"/>
+          <a:ext cx="881268" cy="5794"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>251789</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>86141</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>356152</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>74545</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="矩形 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3805028" y="14953424"/>
+          <a:ext cx="4842015" cy="352838"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>增加对</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1050" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>32</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1050" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>位系统的支持，编译报错：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>sudo apt-get install libc6-dev-i386</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>407504</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>172274</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57977</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="矩形 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2585830" y="15039557"/>
+          <a:ext cx="337930" cy="192160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57979</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>107675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>430696</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>173934</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2236305" y="15521610"/>
+          <a:ext cx="1747630" cy="430694"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>dumpbin  –exports  xxx.dll</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>dumpbin -headers xxx.dll</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>467138</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>25674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>660950</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>25678</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="直接箭头连接符 76"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="81" idx="3"/>
+          <a:endCxn id="78" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3332921" y="15804044"/>
+          <a:ext cx="881268" cy="4"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>660950</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>31477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>339587</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>19880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="矩形 77"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4214189" y="15627629"/>
+          <a:ext cx="1741007" cy="352838"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>可以查看是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>32</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>位还是</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>64</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>位</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>637761</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>117610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>467138</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>115956</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="矩形 80"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2816087" y="15713762"/>
+          <a:ext cx="516834" cy="180564"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6210300" cy="2790825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>typedef</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0"/>
+            <a:t>    char (*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="1"/>
+            <a:t>PTRFUN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0"/>
+            <a:t>)(int);  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0"/>
+            <a:t>定义一种类型的函数指针</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1600" b="1"/>
+            <a:t>PTRFUN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0"/>
+            <a:t> pFun;  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0"/>
+            <a:t>创建一个这种类型的函数指针</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0"/>
+            <a:t> char glFun(int a)//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0"/>
+            <a:t>创建普通函数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0"/>
+            <a:t>     return;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0"/>
+            <a:t>}   </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0"/>
+            <a:t>void main()  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0"/>
+            <a:t> {      </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0"/>
+            <a:t>     pFun  =  glFun;//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0"/>
+            <a:t>将函数传递给函数指针</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0"/>
+            <a:t>       </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0"/>
+            <a:t>     (*pFun)(2);  //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0"/>
+            <a:t>执行函数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0"/>
+            <a:t>} </a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="2886075"/>
+          <a:ext cx="11972924" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>typedef</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>的功能是定义新的类型。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>第一句就是定义了一种</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>PTRFUN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>的类型，并定义这种类型为指向某种函数的指针，这种函数以一个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>为参数并返回</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>char</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>类型。后面就可以像使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>int,char</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>一样使用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>PTRFUN</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>了。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>第二行的代码便使用这个新类型定义了变量</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>pFun</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>，此时就可以像使用形式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>一样使用这个变量了。</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11080,8 +12369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:S86"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O59" sqref="O59"/>
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -11379,20 +12668,20 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="14.25" customHeight="1">
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
       <c r="N37" s="6"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
@@ -11401,18 +12690,18 @@
       <c r="S37" s="5"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
       <c r="N38" s="6"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
@@ -11421,18 +12710,18 @@
       <c r="S38" s="5"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
       <c r="N39" s="6"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -11441,18 +12730,18 @@
       <c r="S39" s="5"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
       <c r="N40" s="6"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -11461,18 +12750,18 @@
       <c r="S40" s="5"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
       <c r="N41" s="6"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -11937,10 +13226,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L78" sqref="L78"/>
+    <sheetView topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -12165,6 +13454,24 @@
         <v>52</v>
       </c>
     </row>
+    <row r="76" spans="1:12" ht="15.75" customHeight="1">
+      <c r="A76" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12177,24 +13484,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="20.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>66</v>
       </c>
     </row>
@@ -12203,4 +13510,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A17:A18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="17" spans="1:1" ht="18">
+      <c r="A17" s="28"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="27"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/project的写法.xlsx
+++ b/project的写法.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="c project" sheetId="1" r:id="rId1"/>
     <sheet name="静态库与动态库" sheetId="2" r:id="rId2"/>
     <sheet name="工程中的全局变量" sheetId="3" r:id="rId3"/>
     <sheet name="typedef" sheetId="4" r:id="rId4"/>
+    <sheet name="中文转码" sheetId="5" r:id="rId5"/>
+    <sheet name="延时函数" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
   <si>
     <r>
       <t>#include “</t>
@@ -1140,12 +1142,16 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>字符串的转码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1257,6 +1263,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1315,7 +1329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1358,11 +1372,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -12074,6 +12089,1392 @@
             <a:t>一样使用这个变量了。</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>241787</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>578827</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>168519</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="241787"/>
+          <a:ext cx="6065227" cy="7765807"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>#include &lt;stdio.h&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>#include &lt;iconv.h&gt;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>#define OUTLEN 255</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>代码转换</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>从一种编码转为另一种编码</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>int code_convert(char *from_charset,char *to_charset,char *inbuf,int inlen,char *outbuf,int outlen)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    iconv_t cd;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    int rc;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    char **pin = &amp;inbuf;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    char **pout = &amp;outbuf;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    cd = iconv_open(to_charset,from_charset);</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    if (cd==0) return -1;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    memset(outbuf,0,outlen);</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    if (iconv(cd,pin,&amp;inlen,pout,&amp;outlen)==-1) return -1;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    iconv_close(cd);</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    return 0;</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//UNICODE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>码转为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>GB2312</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>码</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>int u2g(char *inbuf,int inlen,char *outbuf,int outlen)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="zh-CN"/>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0" fontAlgn="base"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>return code_convert("utf-8","gb2312",inbuf,inlen,outbuf,outlen);</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//GB2312</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>码转为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>UNICODE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>码</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>int g2u(char *inbuf,size_t inlen,char *outbuf,size_t outlen)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    return code_convert("gb2312","utf-8",inbuf,inlen,outbuf,outlen);</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" baseline="0">
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>main()</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>char *in_utf8 = "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>姝ｅ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>?</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>ㄥ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>??</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>瑁</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>?";</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>char *in_gb2312 = "</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>正在安装</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>";</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>char out[OUTLEN];</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>//unicode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>码转为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gb2312</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>码</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>rc = u2g(  in_utf8, strlen(in_utf8), out, OUTLEN );</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>printf("unicode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>转为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>gb2312</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的结果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>: %s",out);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>//gb2312</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>码转为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>unicode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>码</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>rc = g2u(in_gb2312,strlen(in_gb2312),out,OUTLEN);</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>printf("gb2312</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>转为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>unicode</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>的结果</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>%s",out);</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5257800" cy="3886200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>时钟换算</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>微秒</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>us</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>（英语：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>microsecond </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>）</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t> 1us = 10^ -6  s</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t/>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>0.000 001 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>微秒 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>= 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>皮秒</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>0.001 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>微秒 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>= 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>纳秒</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>1,000 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>微秒 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>= 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>毫秒</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>1,000,000 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>微秒 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>= 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>秒</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>1s = 1000ms</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t> 1ms = 1000</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" altLang="zh-CN" sz="1400"/>
+            <a:t>μ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>s</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t> 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" altLang="zh-CN" sz="1400"/>
+            <a:t>μ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>s = 1000ns</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t> 1ns = 1000ps</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t> 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>秒</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>(s) = 1000 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>毫秒</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>(ms) = 1,000,000 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>微秒</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="el-GR" altLang="zh-CN" sz="1400"/>
+            <a:t>μ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>s) = 1,000,000,000 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>纳秒</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>(ns) = 1,000,000,000,000 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>皮秒</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>(ps)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5495925" y="0"/>
+          <a:ext cx="4572000" cy="3886200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>#include&lt;unistd.h&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>秒级别延时函数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>unsigned  sleep ( unsigned  seconds)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:ea typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>微秒级别延时函数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>void  usleep (int  micro_seconds)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Tahoma"/>
+              <a:cs typeface="Tahoma"/>
+            </a:rPr>
+            <a:t>毫秒级别延时函数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>void </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+            <a:t> delayms(unsigned int ms)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+            <a:t>   while(ms--)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+            <a:t>   usleep(1000);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12668,20 +14069,20 @@
       </c>
     </row>
     <row r="37" spans="1:19" ht="14.25" customHeight="1">
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
       <c r="N37" s="6"/>
       <c r="O37" s="5"/>
       <c r="P37" s="5"/>
@@ -12690,18 +14091,18 @@
       <c r="S37" s="5"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
       <c r="N38" s="6"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
@@ -12710,18 +14111,18 @@
       <c r="S38" s="5"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
       <c r="N39" s="6"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5"/>
@@ -12730,18 +14131,18 @@
       <c r="S39" s="5"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
       <c r="N40" s="6"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
@@ -12750,18 +14151,18 @@
       <c r="S40" s="5"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
       <c r="N41" s="6"/>
       <c r="O41" s="5"/>
       <c r="P41" s="5"/>
@@ -13516,19 +14917,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A17:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="17" spans="1:1" ht="18">
-      <c r="A17" s="28"/>
+      <c r="A17" s="27"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="27"/>
+      <c r="A18" s="26"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.75">
+      <c r="A1" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/project的写法.xlsx
+++ b/project的写法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="c project" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="typedef" sheetId="4" r:id="rId4"/>
     <sheet name="中文转码" sheetId="5" r:id="rId5"/>
     <sheet name="延时函数" sheetId="6" r:id="rId6"/>
+    <sheet name="函数指针" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -13475,6 +13476,1649 @@
             <a:t>}</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="9934575" cy="3819524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>函数具有可赋值给指针的物理内存地址，一个函数的函数名就是一个指针，它指向函数的代码。一个函数的地址是该函数的进入点，也是调用函数的地址。函数的调用可以通过函数名，也可以通过指向函数的指针来调用。函数指针还允许将函数作为变元传递给其他函数。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>      不带括号和变量列表的函数名，这可以表示函数的地址，正如不带下标的数组名可以表示数组的首地址。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>定义形式：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>        类型 （*指针变量名）（参数列表）；</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>例如：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>        </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>int (*p)(int i,int j);</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>    p</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>是一个指针，它指向一个函数，该函数有</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>个整形参数，返回类型为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>。</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>p</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>首先和*结合，表明</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>p</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>是一个指针。然后再与（）结合，表明它指向的是一个函数。指向函数的指针也称为函数指针。</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="1"/>
+            <a:t>注意：</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>        int *f(int i, int j); //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>该为返回值是指针的函数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>        int (*p)(int i, int j);//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>该为一个指向函数的指针</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="2590799"/>
+          <a:ext cx="7962900" cy="8439151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>#include &lt;stdio.h&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>#define  GET_MAX    0  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>#define  GET_MIN    1  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>int get_max(int i,int j)  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>    return i&gt;j?i:j;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>}  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>int get_min(int i,int j)  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>    return i&gt;j?j:i;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>}  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>int compare(int i,int j,int flag)  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>    int ret;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>    //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
+            <a:t>这里定义了一个函数指针，就可以根据传入的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>flag</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
+            <a:t>，灵活地决定其是指向求大数或求小数的函数  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
+            <a:t>便于方便灵活地调用各类函数  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>int (*p)(int,int);</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>    //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="0"/>
+            <a:t>函数指针的传递</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>    if(flag == GET_MAX)  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>        p = get_max;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>    else  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>        p = get_min;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>    </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="zh-CN" sz="1100" b="0">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>执行函数</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  ret = p(i,j);</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>    return ret;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>}  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>int main()  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>    int i = 5,j = 10,ret;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>    ret = compare(i,j,GET_MAX);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>    printf("The MAX is %d\n",ret);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>    ret = compare(i,j,GET_MIN);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>    printf("The MIN is %d\n",ret);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>    return 0 ;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="0"/>
+            <a:t>}  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1440"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Tahoma"/>
+            <a:ea typeface="Tahoma"/>
+            <a:cs typeface="Tahoma"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="11220451"/>
+          <a:ext cx="7962900" cy="6457950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1"/>
+            <a:t>例</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>#include &lt;stdio.h&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>#include &lt;string.h&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>void check(char *a,char *b,int (*cmp)(const char *,const char *));  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>main()  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    char s1[80],s2[80];  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>int (*p)(const char *,const char *);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>将库函数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>strcmp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>的地址赋值给函数指针</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>p  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>p=strcmp;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    printf("Enter two strings.\n");  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    gets(s1);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    gets(s2);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> check(s1,s2,p);</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>}  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>void check(char *a,char *b,int (*cmp)(const char *,const char *))  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    printf("Testing for equality.\n");  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>表达式</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>(*cmp)(a,b)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>strcmp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>，由</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>cmp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>指向库函数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>strcmp()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>，由</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>b</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>作调用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>strcmp()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>的参数。  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>调用时，与声明的情况类似，必须在*</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>cmp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>周围使用一对括号，使编译程序正确操作，  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>同时这也是一种良好的编码风格，指示函数是通过指针调用的，而不是函数名。  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>if(   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(*cmp)(a,b) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> ==   </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>0 )  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>        printf("Equal\n");  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    else  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>        printf("Not Equal\n");  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>}  </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="17916524"/>
+          <a:ext cx="7962900" cy="9124951"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1"/>
+            <a:t>例</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>#include &lt;stdio.h&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>#include &lt;ctype.h&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>#include &lt;stdlib.h&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>#include &lt;string.h&gt;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>//check()</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>函数的第</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>个函数是函数指针，就可以根据具体情况传入不同的处理函数  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>void check(char *a,char *b,int (*cmp)(const char *,const char *));  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>//</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>自定义的比较两个字符串的函数  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>int compvalues(const char *a,const char *b);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>main()  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    char s1[80],s2[80];  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    printf("Enter two values or two strings.\n");  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    gets(s1);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    gets(s2);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>如果是数字，则用函数指针传入数字比较函数进行处理  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>if(isdigit(*s1)){  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>        printf("Testing values for equality.\n");  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>        check(s1,s2,compvalues);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    }  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    //</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>如果是字符串，则用函数指针传入库函数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>strcmp</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>进行处理  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+            <a:t>    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>else{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>        printf("Testing strings for equality.\n");  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>        check(s1,s2,strcmp);  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    }  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>}  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>void check(char *a,char *b,int (*cmp)(const char *,const char *))  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    if((*cmp)(a,b)==0)  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>        printf("Equal.\n");  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    else  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>        printf("Not Equal.\n");  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>}  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>int compvalues(const char *a,const char *b)  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>{  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    if(atoi(a)==atoi(b))  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>        return 0;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>    else  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>        return 1;  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+            <a:t>}  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1200" b="1"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14967,12 +16611,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/project的写法.xlsx
+++ b/project的写法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="12765" windowHeight="5715" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="c project" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="87">
   <si>
     <r>
       <t>#include “</t>
@@ -1146,6 +1146,337 @@
   <si>
     <t>字符串的转码</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程中常见的用法为：</t>
+  </si>
+  <si>
+    <r>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"gv.h"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件中用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>extern</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>声明全局变量，如</t>
+    </r>
+  </si>
+  <si>
+    <t>extern int gv</t>
+  </si>
+  <si>
+    <r>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“gv.cpp”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件中定义全局变量，如</t>
+    </r>
+  </si>
+  <si>
+    <t>int gv;</t>
+  </si>
+  <si>
+    <r>
+      <t>在其他文件中使用、调用全局变量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>包含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"gv.h"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，如</t>
+    </r>
+  </si>
+  <si>
+    <t>gv=1</t>
+  </si>
+  <si>
+    <r>
+      <t>之所以不直接在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>“gv.h”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件中直接定义全局变量，而要在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>".cpp"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件中定义的原因是：</t>
+    </r>
+  </si>
+  <si>
+    <t>头文件中不可以放变量的定义！！！</t>
+  </si>
+  <si>
+    <t>一般情况下头文件中只放变量的声明，</t>
+  </si>
+  <si>
+    <r>
+      <t>因为头文件要被其他文件包含（即</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>#include</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>），</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如果把定义放到头文件的话，就不能避免多次定义变量，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>C++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不允许多次定义变量，一个程序中对指定变量的定义只有一次，</t>
+    </r>
+  </si>
+  <si>
+    <t>————————————————</t>
+  </si>
+  <si>
+    <r>
+      <t>版权声明：本文为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CSDN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>博主「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CS_ChenLI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>」的原创文章，遵循</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CC 4.0 BY-SA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版权协议，转载请附上原文出处链接及本声明。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>原文链接：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://blog.csdn.net/love_fdu_llp/article/details/41910801</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -16527,10 +16858,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -16548,6 +16879,81 @@
     <row r="4" spans="1:1" ht="20.25">
       <c r="A4" s="25" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="18" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="18" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -16626,7 +17032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -16638,6 +17044,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>